--- a/data/57b120e6-0e92-4ccd-b290-464769b02f7f/data.xlsx
+++ b/data/57b120e6-0e92-4ccd-b290-464769b02f7f/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ramboll-my.sharepoint.com/personal/james_thomson_ramboll_co_uk/Documents/Documents/GitHub/Bruntwood_V1/data/57b120e6-0e92-4ccd-b290-464769b02f7f/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_7D9995BE87505166CF9B3C11595ED87656CD7765" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{417D379A-51AE-49DE-8DF5-3C840D52368E}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="11_7D9995BE87505166CF9B3C11595ED87656CD7765" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{172F4738-1E24-4683-A3BE-3FAF6F47F4EC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD26"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1094,11 @@
         <v>591762.19729743095</v>
       </c>
     </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/57b120e6-0e92-4ccd-b290-464769b02f7f/data.xlsx
+++ b/data/57b120e6-0e92-4ccd-b290-464769b02f7f/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ramboll-my.sharepoint.com/personal/james_thomson_ramboll_co_uk/Documents/Documents/GitHub/Bruntwood_V1/data/57b120e6-0e92-4ccd-b290-464769b02f7f/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="11_7D9995BE87505166CF9B3C11595ED87656CD7765" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{172F4738-1E24-4683-A3BE-3FAF6F47F4EC}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_7D9995BE87505166CF9B3C11595ED87656CD7765" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{87E72BA6-2958-4844-A9B7-708E5273DE44}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,12 +93,6 @@
     <t>St. James_100111_Wall.Regs_Roof.Basecase_Floor.Basecase_Glazing.Regs_Rooflights.Regs_Airtightness.Regs</t>
   </si>
   <si>
-    <t>St. James_011010_Wall.Basecase_Roof.Regs_Floor.Regs_Glazing.Basecase_Rooflights.Regs_AirTightness.Basecase</t>
-  </si>
-  <si>
-    <t>St. James_001010_Wall.Basecase_Roof.Basecase_Floor.Regs_Glazing.Basecase_Rooflights.Regs_AirTightness.Basecase</t>
-  </si>
-  <si>
     <t>St. James_211012_Wall.Pilot_Roof.Regs_Floor.Regs_Glazing.Basecase_Rooflights.Regs_Airtightness.Pilot</t>
   </si>
   <si>
@@ -109,6 +103,12 @@
   </si>
   <si>
     <t>St. James_201012_Wall.Pilot_Roof.Basecase_Floor.Regs_Glazing.Basecase_Rooflights.Regs_Airtightness.Pilot</t>
+  </si>
+  <si>
+    <t>St. James_011010_Wall.Basecase_Roof.Regs_Floor.Regs_Glazing.Basecase_Rooflights.Regs_Airtightness.Basecase</t>
+  </si>
+  <si>
+    <t>St. James_001010_Wall.Basecase_Roof.Basecase_Floor.Regs_Glazing.Basecase_Rooflights.Regs_Airtightness.Basecase</t>
   </si>
 </sst>
 </file>
@@ -471,16 +471,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
@@ -794,7 +794,7 @@
         <v>591762.19729743106</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -820,7 +820,7 @@
         <v>-1365529.7705726109</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J7">
         <v>7705.9611822908173</v>
@@ -870,7 +870,7 @@
         <v>-1279537.6193866739</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>11833.976008957699</v>
@@ -920,7 +920,7 @@
         <v>-1645139.5175766761</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J9">
         <v>4481.4709546133154</v>
@@ -970,7 +970,7 @@
         <v>-1404624.9383717671</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J10">
         <v>6412.4807360216209</v>
@@ -1020,7 +1020,7 @@
         <v>-1508078.0679045389</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J11">
         <v>5110.6246907458863</v>
@@ -1070,7 +1070,7 @@
         <v>-1414815.3133634429</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J12">
         <v>8092.8532456110279</v>
@@ -1094,8 +1094,8 @@
         <v>591762.19729743095</v>
       </c>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F26" s="1"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
